--- a/タタキ台_イントロドン仕様書.xlsx
+++ b/タタキ台_イントロドン仕様書.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\root\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\MAMP\htdocs\intro_don\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -424,10 +424,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>entry_user1</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>entry_user2</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -442,30 +438,6 @@
   </si>
   <si>
     <t>クエスチョンテーブル</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>gold_user</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>silver_user</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>bronze_user</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>gold_score</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>silver_score</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>bronze_score</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -597,23 +569,51 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>question1_select1_songid</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>question1_select2_songid</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>question1_select3_songid</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>question1_select4_songid</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <t>question1_correct_songid</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>question1_select1_songid</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>question1_select2_songid</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>question1_select3_songid</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>question1_select4_songid</t>
+    <t>entry_user1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>gold_user</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>silver_user</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>bronze_user</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>gold_score</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>silver_score</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>bronze_score</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1115,7 +1115,7 @@
   <dimension ref="B1:S30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+      <selection activeCell="H28" sqref="H28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1127,30 +1127,30 @@
   <sheetData>
     <row r="1" spans="2:19" x14ac:dyDescent="0.4">
       <c r="B1" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="H1" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
     </row>
     <row r="2" spans="2:19" x14ac:dyDescent="0.4">
       <c r="B2" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="F2" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="H2" t="s">
         <v>40</v>
       </c>
       <c r="M2" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="P2" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="S2" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
     </row>
     <row r="3" spans="2:19" x14ac:dyDescent="0.4">
@@ -1161,7 +1161,7 @@
         <v>31</v>
       </c>
       <c r="H3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="M3" t="s">
         <v>38</v>
@@ -1170,7 +1170,7 @@
         <v>39</v>
       </c>
       <c r="S3" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
     </row>
     <row r="4" spans="2:19" x14ac:dyDescent="0.4">
@@ -1201,13 +1201,13 @@
         <v>32</v>
       </c>
       <c r="M5" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="P5" t="s">
         <v>41</v>
       </c>
       <c r="S5" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
     </row>
     <row r="6" spans="2:19" x14ac:dyDescent="0.4">
@@ -1218,16 +1218,16 @@
         <v>33</v>
       </c>
       <c r="H6" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="M6" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="P6" t="s">
         <v>43</v>
       </c>
       <c r="S6" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
     </row>
     <row r="7" spans="2:19" x14ac:dyDescent="0.4">
@@ -1235,61 +1235,61 @@
         <v>34</v>
       </c>
       <c r="H7" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="M7" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="P7" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="S7" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
     </row>
     <row r="8" spans="2:19" x14ac:dyDescent="0.4">
       <c r="C8" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="F8" t="s">
         <v>35</v>
       </c>
       <c r="H8" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="P8" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="S8" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
     </row>
     <row r="9" spans="2:19" x14ac:dyDescent="0.4">
       <c r="C9" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="F9" t="s">
         <v>36</v>
       </c>
       <c r="H9" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="P9" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="S9" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
     </row>
     <row r="10" spans="2:19" x14ac:dyDescent="0.4">
       <c r="C10" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="F10" t="s">
         <v>37</v>
       </c>
       <c r="H10" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
     </row>
     <row r="11" spans="2:19" x14ac:dyDescent="0.4">
@@ -1297,25 +1297,25 @@
         <v>42</v>
       </c>
       <c r="H11" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
     </row>
     <row r="12" spans="2:19" x14ac:dyDescent="0.4">
       <c r="M12" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
     </row>
     <row r="13" spans="2:19" x14ac:dyDescent="0.4">
       <c r="C13" t="s">
+        <v>59</v>
+      </c>
+      <c r="M13" t="s">
         <v>66</v>
-      </c>
-      <c r="M13" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="14" spans="2:19" x14ac:dyDescent="0.4">
       <c r="C14" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="F14" t="s">
         <v>26</v>
@@ -1332,11 +1332,14 @@
     </row>
     <row r="15" spans="2:19" x14ac:dyDescent="0.4">
       <c r="C15" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="F15" t="s">
         <v>27</v>
       </c>
+      <c r="J15">
+        <v>15</v>
+      </c>
       <c r="M15" t="s">
         <v>27</v>
       </c>
@@ -1349,17 +1352,20 @@
     </row>
     <row r="16" spans="2:19" x14ac:dyDescent="0.4">
       <c r="H16" t="s">
-        <v>44</v>
+        <v>83</v>
+      </c>
+      <c r="J16">
+        <v>50</v>
       </c>
     </row>
     <row r="17" spans="3:8" x14ac:dyDescent="0.4">
       <c r="H17" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="18" spans="3:8" x14ac:dyDescent="0.4">
       <c r="H18" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="19" spans="3:8" x14ac:dyDescent="0.4">
@@ -1367,7 +1373,7 @@
         <v>26</v>
       </c>
       <c r="H19" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="20" spans="3:8" x14ac:dyDescent="0.4">
@@ -1375,42 +1381,42 @@
         <v>27</v>
       </c>
       <c r="H20" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="22" spans="3:8" x14ac:dyDescent="0.4">
       <c r="H22" t="s">
-        <v>50</v>
+        <v>84</v>
       </c>
     </row>
     <row r="23" spans="3:8" x14ac:dyDescent="0.4">
       <c r="H23" t="s">
-        <v>51</v>
+        <v>85</v>
       </c>
     </row>
     <row r="24" spans="3:8" x14ac:dyDescent="0.4">
       <c r="H24" t="s">
-        <v>52</v>
+        <v>86</v>
       </c>
     </row>
     <row r="25" spans="3:8" x14ac:dyDescent="0.4">
       <c r="H25" t="s">
-        <v>53</v>
+        <v>87</v>
       </c>
     </row>
     <row r="26" spans="3:8" x14ac:dyDescent="0.4">
       <c r="H26" t="s">
-        <v>54</v>
+        <v>88</v>
       </c>
     </row>
     <row r="27" spans="3:8" x14ac:dyDescent="0.4">
       <c r="H27" t="s">
-        <v>55</v>
+        <v>89</v>
       </c>
     </row>
     <row r="28" spans="3:8" x14ac:dyDescent="0.4">
       <c r="H28" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
     </row>
     <row r="29" spans="3:8" x14ac:dyDescent="0.4">

--- a/タタキ台_イントロドン仕様書.xlsx
+++ b/タタキ台_イントロドン仕様書.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="92">
   <si>
     <t>仕様書</t>
     <rPh sb="0" eb="3">
@@ -614,6 +614,20 @@
   </si>
   <si>
     <t>bronze_score</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>result</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>追加：正解ならture</t>
+    <rPh sb="0" eb="2">
+      <t>ツイカ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>セイカイ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1115,7 +1129,7 @@
   <dimension ref="B1:S30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H28" sqref="H28"/>
+      <selection activeCell="L17" sqref="L17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1299,6 +1313,12 @@
       <c r="H11" t="s">
         <v>81</v>
       </c>
+      <c r="P11" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>91</v>
+      </c>
     </row>
     <row r="12" spans="2:19" x14ac:dyDescent="0.4">
       <c r="M12" t="s">
